--- a/config_files/Horarios/Palobiofarma, S.L Pamplona/Juan A. Camacho.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Pamplona/Juan A. Camacho.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="470">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -9416,21 +9416,20 @@
       </c>
     </row>
     <row r="46" ht="15.6" customHeight="true">
-      <c r="Z46" s="104" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AA46" s="109" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="AB46" s="109" t="n">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="AC46" s="106" t="n">
-        <v>8.0</v>
-      </c>
+      <c r="Z46" s="104"/>
+      <c r="AA46" s="109"/>
+      <c r="AB46" s="109"/>
+      <c r="AC46" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="T13:V13"/>
     <mergeCell ref="AA40:AC40"/>
     <mergeCell ref="AA33:AC33"/>
     <mergeCell ref="AA34:AC34"/>
@@ -9440,13 +9439,6 @@
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="L32:N32"/>
     <mergeCell ref="T32:V32"/>
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="T13:V13"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/config_files/Horarios/Palobiofarma, S.L Pamplona/Juan A. Camacho.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Pamplona/Juan A. Camacho.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="471">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -1434,6 +1434,9 @@
   </si>
   <si>
     <t>31/10/2022</t>
+  </si>
+  <si>
+    <t>0.0</t>
   </si>
 </sst>
 </file>
@@ -5750,7 +5753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="494">
+  <cellXfs count="502">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
@@ -6890,6 +6893,30 @@
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="493" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -7419,36 +7446,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="true"/>
-    <col min="2" max="2" width="6.77734375" customWidth="true"/>
-    <col min="3" max="3" width="6.77734375" customWidth="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true"/>
-    <col min="6" max="6" width="6.77734375" customWidth="true"/>
-    <col min="7" max="7" width="6.77734375" customWidth="true"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true"/>
-    <col min="9" max="9" width="2.77734375" customWidth="true"/>
-    <col min="10" max="10" width="6.77734375" customWidth="true"/>
-    <col min="11" max="11" width="6.77734375" customWidth="true"/>
-    <col min="12" max="12" width="6.77734375" customWidth="true"/>
-    <col min="13" max="13" width="6.77734375" customWidth="true"/>
-    <col min="14" max="14" width="6.77734375" customWidth="true"/>
-    <col min="15" max="15" width="6.77734375" customWidth="true"/>
-    <col min="16" max="16" width="6.77734375" customWidth="true"/>
-    <col min="17" max="17" width="2.77734375" customWidth="true"/>
-    <col min="18" max="18" width="6.77734375" customWidth="true"/>
-    <col min="19" max="19" width="6.77734375" customWidth="true"/>
-    <col min="20" max="20" width="6.77734375" customWidth="true"/>
-    <col min="21" max="21" width="6.77734375" customWidth="true"/>
-    <col min="22" max="22" width="6.77734375" customWidth="true"/>
-    <col min="23" max="23" width="6.77734375" customWidth="true"/>
-    <col min="24" max="24" width="6.77734375" customWidth="true"/>
-    <col min="25" max="25" width="10.0" customWidth="true"/>
-    <col min="26" max="26" width="5.77734375" customWidth="true"/>
-    <col min="27" max="27" width="25.0" customWidth="true"/>
-    <col min="28" max="28" width="25.0" customWidth="true"/>
-    <col min="29" max="29" width="25.0" customWidth="true"/>
-    <col min="30" max="30" width="10.0" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="5.77734375" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.8" customHeight="true">
@@ -9452,23 +9479,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -10048,23 +10075,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -10651,23 +10678,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11245,23 +11272,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11847,23 +11874,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -12042,19 +12069,26 @@
       <c r="B18" s="131" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="132"/>
-      <c r="E18" s="132"/>
-      <c r="G18" s="129" t="n">
-        <f>((E18-C18)*24)-1</f>
-        <v>0.0</v>
+      <c r="C18" s="132" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="132" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="129" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19" ht="14.4" customHeight="true">
       <c r="B19" s="131" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="132"/>
-      <c r="E19" s="132"/>
+      <c r="C19" s="497" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E19" s="497" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G19" s="129" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
@@ -12064,8 +12098,12 @@
       <c r="B20" s="131" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="132"/>
-      <c r="E20" s="132"/>
+      <c r="C20" s="497" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E20" s="497" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G20" s="129" t="n">
         <f>((E20-C20)*24)-1</f>
         <v>0.0</v>
@@ -12085,8 +12123,12 @@
       <c r="B22" s="131" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="132"/>
-      <c r="E22" s="132"/>
+      <c r="C22" s="497" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E22" s="497" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G22" s="129" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
@@ -12116,8 +12158,12 @@
       <c r="B25" s="131" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="132"/>
-      <c r="E25" s="132"/>
+      <c r="C25" s="497" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E25" s="497" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G25" s="129" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
@@ -12127,8 +12173,12 @@
       <c r="B26" s="131" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="132"/>
-      <c r="E26" s="132"/>
+      <c r="C26" s="497" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E26" s="497" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G26" s="129" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
@@ -12138,8 +12188,12 @@
       <c r="B27" s="131" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="132"/>
-      <c r="E27" s="132"/>
+      <c r="C27" s="497" t="n">
+        <v>0.3854166666666667</v>
+      </c>
+      <c r="E27" s="497" t="n">
+        <v>0.7604166666666666</v>
+      </c>
       <c r="G27" s="129" t="n">
         <f>((E27-C27)*24)-1</f>
         <v>0.0</v>
@@ -12149,8 +12203,12 @@
       <c r="B28" s="131" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="132"/>
-      <c r="E28" s="132"/>
+      <c r="C28" s="497" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E28" s="497" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G28" s="129" t="n">
         <f>((E28-C28)*24)-1</f>
         <v>0.0</v>
@@ -12160,8 +12218,12 @@
       <c r="B29" s="131" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="132"/>
-      <c r="E29" s="132"/>
+      <c r="C29" s="497" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E29" s="497" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G29" s="129" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
@@ -12191,8 +12253,12 @@
       <c r="B32" s="131" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="132"/>
-      <c r="E32" s="132"/>
+      <c r="C32" s="497" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E32" s="497" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G32" s="129" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
@@ -12202,8 +12268,12 @@
       <c r="B33" s="131" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="132"/>
-      <c r="E33" s="132"/>
+      <c r="C33" s="497" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E33" s="497" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G33" s="129" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
@@ -12213,8 +12283,12 @@
       <c r="B34" s="131" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="132"/>
-      <c r="E34" s="132"/>
+      <c r="C34" s="497" t="n">
+        <v>0.3854166666666667</v>
+      </c>
+      <c r="E34" s="497" t="n">
+        <v>0.7604166666666666</v>
+      </c>
       <c r="G34" s="129" t="n">
         <f>((E34-C34)*24)-1</f>
         <v>0.0</v>
@@ -12224,8 +12298,12 @@
       <c r="B35" s="131" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="132"/>
-      <c r="E35" s="132"/>
+      <c r="C35" s="497" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E35" s="497" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G35" s="129" t="n">
         <f>((E35-C35)*24)-1</f>
         <v>0.0</v>
@@ -12235,8 +12313,12 @@
       <c r="B36" s="131" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="132"/>
-      <c r="E36" s="132"/>
+      <c r="C36" s="497" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E36" s="497" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G36" s="129" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -12266,8 +12348,12 @@
       <c r="B39" s="131" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="132"/>
-      <c r="E39" s="132"/>
+      <c r="C39" s="497" t="n">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="E39" s="497" t="n">
+        <v>0.7673611111111112</v>
+      </c>
       <c r="G39" s="129" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
@@ -12277,8 +12363,12 @@
       <c r="B40" s="131" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="132"/>
-      <c r="E40" s="132"/>
+      <c r="C40" s="497" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E40" s="497" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G40" s="129" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
@@ -12288,8 +12378,12 @@
       <c r="B41" s="131" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="132"/>
-      <c r="E41" s="132"/>
+      <c r="C41" s="497" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E41" s="497" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G41" s="129" t="n">
         <f>((E41-C41)*24)-1</f>
         <v>0.0</v>
@@ -12299,8 +12393,12 @@
       <c r="B42" s="131" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="132"/>
-      <c r="E42" s="132"/>
+      <c r="C42" s="497" t="n">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="E42" s="497" t="n">
+        <v>0.7326388888888888</v>
+      </c>
       <c r="G42" s="129" t="n">
         <f>((E42-C42)*24)-1</f>
         <v>0.0</v>
@@ -12310,8 +12408,12 @@
       <c r="B43" s="131" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="132"/>
-      <c r="E43" s="132"/>
+      <c r="C43" s="497" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E43" s="497" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G43" s="129" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
@@ -12341,8 +12443,12 @@
       <c r="B46" s="131" t="n">
         <v>31.0</v>
       </c>
-      <c r="C46" s="132"/>
-      <c r="E46" s="132"/>
+      <c r="C46" s="497" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E46" s="497" t="n">
+        <v>0.7638888888888888</v>
+      </c>
       <c r="G46" s="129" t="n">
         <f>((E46-C46)*24)-1</f>
         <v>0.0</v>
@@ -12471,23 +12577,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -12645,8 +12751,12 @@
       <c r="B16" s="165" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="166"/>
-      <c r="E16" s="166"/>
+      <c r="C16" s="500" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E16" s="500" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G16" s="163" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
@@ -12656,8 +12766,12 @@
       <c r="B17" s="165" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="166"/>
-      <c r="E17" s="166"/>
+      <c r="C17" s="500" t="n">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="E17" s="500" t="n">
+        <v>0.7361111111111112</v>
+      </c>
       <c r="G17" s="163" t="n">
         <f>((E17-C17)*24)-1</f>
         <v>0.0</v>
@@ -12667,8 +12781,12 @@
       <c r="B18" s="165" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="166"/>
-      <c r="E18" s="166"/>
+      <c r="C18" s="500" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E18" s="500" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G18" s="163" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
@@ -12678,8 +12796,12 @@
       <c r="B19" s="165" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="166"/>
-      <c r="E19" s="166"/>
+      <c r="C19" s="500" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E19" s="500" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G19" s="163" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
@@ -12709,8 +12831,12 @@
       <c r="B22" s="165" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="166"/>
-      <c r="E22" s="166"/>
+      <c r="C22" s="500" t="n">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="E22" s="500" t="n">
+        <v>0.7673611111111112</v>
+      </c>
       <c r="G22" s="163" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
@@ -12720,8 +12846,12 @@
       <c r="B23" s="165" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="166"/>
-      <c r="E23" s="166"/>
+      <c r="C23" s="500" t="n">
+        <v>0.3854166666666667</v>
+      </c>
+      <c r="E23" s="500" t="n">
+        <v>0.7604166666666666</v>
+      </c>
       <c r="G23" s="163" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
@@ -12731,8 +12861,12 @@
       <c r="B24" s="165" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="166"/>
-      <c r="E24" s="166"/>
+      <c r="C24" s="500" t="n">
+        <v>0.3506944444444444</v>
+      </c>
+      <c r="E24" s="500" t="n">
+        <v>0.7256944444444444</v>
+      </c>
       <c r="G24" s="163" t="n">
         <f>((E24-C24)*24)-1</f>
         <v>0.0</v>
@@ -12742,8 +12876,12 @@
       <c r="B25" s="165" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="166"/>
-      <c r="E25" s="166"/>
+      <c r="C25" s="500" t="n">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="E25" s="500" t="n">
+        <v>0.7326388888888888</v>
+      </c>
       <c r="G25" s="163" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
@@ -12753,8 +12891,12 @@
       <c r="B26" s="165" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="166"/>
-      <c r="E26" s="166"/>
+      <c r="C26" s="500" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E26" s="500" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G26" s="163" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
@@ -12784,8 +12926,12 @@
       <c r="B29" s="165" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="166"/>
-      <c r="E29" s="166"/>
+      <c r="C29" s="500" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E29" s="500" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G29" s="163" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
@@ -12795,8 +12941,12 @@
       <c r="B30" s="165" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="166"/>
-      <c r="E30" s="166"/>
+      <c r="C30" s="500" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E30" s="500" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G30" s="163" t="n">
         <f>((E30-C30)*24)-1</f>
         <v>0.0</v>
@@ -12806,8 +12956,12 @@
       <c r="B31" s="165" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="166"/>
-      <c r="E31" s="166"/>
+      <c r="C31" s="500" t="n">
+        <v>0.3819444444444444</v>
+      </c>
+      <c r="E31" s="500" t="n">
+        <v>0.7569444444444444</v>
+      </c>
       <c r="G31" s="163" t="n">
         <f>((E31-C31)*24)-1</f>
         <v>0.0</v>
@@ -12817,8 +12971,12 @@
       <c r="B32" s="165" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="166"/>
-      <c r="E32" s="166"/>
+      <c r="C32" s="500" t="n">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="E32" s="500" t="n">
+        <v>0.7326388888888888</v>
+      </c>
       <c r="G32" s="163" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
@@ -12828,8 +12986,12 @@
       <c r="B33" s="165" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="166"/>
-      <c r="E33" s="166"/>
+      <c r="C33" s="500" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E33" s="500" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G33" s="163" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
@@ -12859,8 +13021,12 @@
       <c r="B36" s="165" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="166"/>
-      <c r="E36" s="166"/>
+      <c r="C36" s="500" t="n">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="E36" s="500" t="n">
+        <v>0.7673611111111112</v>
+      </c>
       <c r="G36" s="163" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -12870,8 +13036,12 @@
       <c r="B37" s="165" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="166"/>
-      <c r="E37" s="166"/>
+      <c r="C37" s="500" t="n">
+        <v>0.3784722222222222</v>
+      </c>
+      <c r="E37" s="500" t="n">
+        <v>0.7534722222222222</v>
+      </c>
       <c r="G37" s="163" t="n">
         <f>((E37-C37)*24)-1</f>
         <v>0.0</v>
@@ -12881,8 +13051,12 @@
       <c r="B38" s="165" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="166"/>
-      <c r="E38" s="166"/>
+      <c r="C38" s="500" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E38" s="500" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G38" s="163" t="n">
         <f>((E38-C38)*24)-1</f>
         <v>0.0</v>
@@ -12892,8 +13066,12 @@
       <c r="B39" s="165" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="166"/>
-      <c r="E39" s="166"/>
+      <c r="C39" s="500" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E39" s="500" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G39" s="163" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
@@ -12903,8 +13081,12 @@
       <c r="B40" s="165" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="166"/>
-      <c r="E40" s="166"/>
+      <c r="C40" s="500" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E40" s="500" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G40" s="163" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
@@ -12934,8 +13116,12 @@
       <c r="B43" s="165" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="166"/>
-      <c r="E43" s="166"/>
+      <c r="C43" s="500" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E43" s="500" t="n">
+        <v>0.5833333333333334</v>
+      </c>
       <c r="G43" s="163" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
@@ -13080,23 +13266,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -13701,23 +13887,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -13875,8 +14061,12 @@
       <c r="B16" s="232" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="233"/>
-      <c r="E16" s="233"/>
+      <c r="C16" s="501" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E16" s="501" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G16" s="230" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
@@ -13906,8 +14096,12 @@
       <c r="B19" s="232" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="233"/>
-      <c r="E19" s="233"/>
+      <c r="C19" s="501" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E19" s="501" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G19" s="230" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
@@ -13917,8 +14111,12 @@
       <c r="B20" s="232" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="233"/>
-      <c r="E20" s="233"/>
+      <c r="C20" s="501" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E20" s="501" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G20" s="230" t="n">
         <f>((E20-C20)*24)-1</f>
         <v>0.0</v>
@@ -13928,8 +14126,12 @@
       <c r="B21" s="232" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="233"/>
-      <c r="E21" s="233"/>
+      <c r="C21" s="501" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E21" s="501" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G21" s="230" t="n">
         <f>((E21-C21)*24)-1</f>
         <v>0.0</v>
@@ -13939,8 +14141,12 @@
       <c r="B22" s="232" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="233"/>
-      <c r="E22" s="233"/>
+      <c r="C22" s="501" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E22" s="501" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G22" s="230" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
@@ -13950,8 +14156,12 @@
       <c r="B23" s="232" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="233"/>
-      <c r="E23" s="233"/>
+      <c r="C23" s="501" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E23" s="501" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G23" s="230" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
@@ -13981,33 +14191,42 @@
       <c r="B26" s="232" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="233"/>
-      <c r="E26" s="233"/>
-      <c r="G26" s="230" t="n">
-        <f>((E26-C26)*24)-1</f>
-        <v>0.0</v>
+      <c r="C26" s="233" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="233" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="230" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="27" ht="14.4" customHeight="true">
       <c r="B27" s="232" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="233"/>
-      <c r="E27" s="233"/>
-      <c r="G27" s="230" t="n">
-        <f>((E27-C27)*24)-1</f>
-        <v>0.0</v>
+      <c r="C27" s="233" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="233" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="230" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="28" ht="14.4" customHeight="true">
       <c r="B28" s="232" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="233"/>
-      <c r="E28" s="233"/>
-      <c r="G28" s="230" t="n">
-        <f>((E28-C28)*24)-1</f>
-        <v>0.0</v>
+      <c r="C28" s="233" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="233" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="230" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="29" ht="14.4" customHeight="true">
@@ -14064,22 +14283,28 @@
       <c r="B34" s="232" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="233"/>
-      <c r="E34" s="233"/>
-      <c r="G34" s="230" t="n">
-        <f>((E34-C34)*24)-1</f>
-        <v>0.0</v>
+      <c r="C34" s="233" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="233" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="230" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="35" ht="14.4" customHeight="true">
       <c r="B35" s="232" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="233"/>
-      <c r="E35" s="233"/>
-      <c r="G35" s="230" t="n">
-        <f>((E35-C35)*24)-1</f>
-        <v>0.0</v>
+      <c r="C35" s="233" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="233" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" s="230" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="36" ht="14.4" customHeight="true">
@@ -14312,23 +14537,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -14932,23 +15157,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -15532,23 +15757,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -16135,23 +16360,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">

--- a/config_files/Horarios/Palobiofarma, S.L Pamplona/Juan A. Camacho.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Pamplona/Juan A. Camacho.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="472">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -1437,6 +1437,9 @@
   </si>
   <si>
     <t>0.0</t>
+  </si>
+  <si>
+    <t>vacaciones</t>
   </si>
 </sst>
 </file>
@@ -5753,7 +5756,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="502">
+  <cellXfs count="512">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
@@ -6893,6 +6896,36 @@
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="493" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment horizontal="center"/>
@@ -12555,6 +12588,7 @@
       <c r="H62" s="143"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -13244,6 +13278,7 @@
       <c r="H62" s="177"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="B58:H62"/>
@@ -13440,8 +13475,12 @@
       <c r="B16" s="199" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="200"/>
-      <c r="E16" s="200"/>
+      <c r="C16" s="503" t="n">
+        <v>0.3854166666666667</v>
+      </c>
+      <c r="E16" s="503" t="n">
+        <v>0.7604166666666666</v>
+      </c>
       <c r="G16" s="197" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
@@ -13451,8 +13490,12 @@
       <c r="B17" s="199" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="200"/>
-      <c r="E17" s="200"/>
+      <c r="C17" s="503" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E17" s="503" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G17" s="197" t="n">
         <f>((E17-C17)*24)-1</f>
         <v>0.0</v>
@@ -13462,8 +13505,12 @@
       <c r="B18" s="199" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="200"/>
-      <c r="E18" s="200"/>
+      <c r="C18" s="503" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E18" s="503" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G18" s="197" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
@@ -13473,8 +13520,12 @@
       <c r="B19" s="199" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="200"/>
-      <c r="E19" s="200"/>
+      <c r="C19" s="503" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E19" s="503" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G19" s="197" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
@@ -13504,8 +13555,12 @@
       <c r="B22" s="199" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="200"/>
-      <c r="E22" s="200"/>
+      <c r="C22" s="503" t="n">
+        <v>0.3854166666666667</v>
+      </c>
+      <c r="E22" s="503" t="n">
+        <v>0.7604166666666666</v>
+      </c>
       <c r="G22" s="197" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
@@ -13515,8 +13570,12 @@
       <c r="B23" s="199" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="200"/>
-      <c r="E23" s="200"/>
+      <c r="C23" s="503" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E23" s="503" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G23" s="197" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
@@ -13526,8 +13585,12 @@
       <c r="B24" s="199" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="200"/>
-      <c r="E24" s="200"/>
+      <c r="C24" s="503" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E24" s="503" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G24" s="197" t="n">
         <f>((E24-C24)*24)-1</f>
         <v>0.0</v>
@@ -13537,8 +13600,12 @@
       <c r="B25" s="199" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="200"/>
-      <c r="E25" s="200"/>
+      <c r="C25" s="503" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E25" s="503" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G25" s="197" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
@@ -13548,8 +13615,12 @@
       <c r="B26" s="199" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="200"/>
-      <c r="E26" s="200"/>
+      <c r="C26" s="503" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E26" s="503" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G26" s="197" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
@@ -13579,8 +13650,12 @@
       <c r="B29" s="199" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="200"/>
-      <c r="E29" s="200"/>
+      <c r="C29" s="503" t="n">
+        <v>0.3854166666666667</v>
+      </c>
+      <c r="E29" s="503" t="n">
+        <v>0.7604166666666666</v>
+      </c>
       <c r="G29" s="197" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
@@ -13590,8 +13665,12 @@
       <c r="B30" s="199" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="200"/>
-      <c r="E30" s="200"/>
+      <c r="C30" s="503" t="n">
+        <v>0.3680555555555556</v>
+      </c>
+      <c r="E30" s="503" t="n">
+        <v>0.7430555555555556</v>
+      </c>
       <c r="G30" s="197" t="n">
         <f>((E30-C30)*24)-1</f>
         <v>0.0</v>
@@ -13601,8 +13680,12 @@
       <c r="B31" s="199" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="200"/>
-      <c r="E31" s="200"/>
+      <c r="C31" s="503" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E31" s="503" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G31" s="197" t="n">
         <f>((E31-C31)*24)-1</f>
         <v>0.0</v>
@@ -13612,8 +13695,12 @@
       <c r="B32" s="199" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="200"/>
-      <c r="E32" s="200"/>
+      <c r="C32" s="503" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E32" s="503" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G32" s="197" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
@@ -13623,8 +13710,12 @@
       <c r="B33" s="199" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="200"/>
-      <c r="E33" s="200"/>
+      <c r="C33" s="503" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E33" s="503" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G33" s="197" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
@@ -13654,8 +13745,12 @@
       <c r="B36" s="199" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="200"/>
-      <c r="E36" s="200"/>
+      <c r="C36" s="503" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E36" s="503" t="n">
+        <v>0.7638888888888888</v>
+      </c>
       <c r="G36" s="197" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -13665,8 +13760,12 @@
       <c r="B37" s="199" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="200"/>
-      <c r="E37" s="200"/>
+      <c r="C37" s="503" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E37" s="503" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G37" s="197" t="n">
         <f>((E37-C37)*24)-1</f>
         <v>0.0</v>
@@ -13676,8 +13775,12 @@
       <c r="B38" s="199" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="200"/>
-      <c r="E38" s="200"/>
+      <c r="C38" s="503" t="n">
+        <v>0.3680555555555556</v>
+      </c>
+      <c r="E38" s="503" t="n">
+        <v>0.7430555555555556</v>
+      </c>
       <c r="G38" s="197" t="n">
         <f>((E38-C38)*24)-1</f>
         <v>0.0</v>
@@ -13687,8 +13790,12 @@
       <c r="B39" s="199" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="200"/>
-      <c r="E39" s="200"/>
+      <c r="C39" s="503" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E39" s="503" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G39" s="197" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
@@ -13698,8 +13805,12 @@
       <c r="B40" s="199" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="200"/>
-      <c r="E40" s="200"/>
+      <c r="C40" s="503" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E40" s="503" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G40" s="197" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
@@ -13729,8 +13840,12 @@
       <c r="B43" s="199" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="200"/>
-      <c r="E43" s="200"/>
+      <c r="C43" s="503" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E43" s="503" t="n">
+        <v>0.7638888888888888</v>
+      </c>
       <c r="G43" s="197" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
@@ -13740,8 +13855,12 @@
       <c r="B44" s="199" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="200"/>
-      <c r="E44" s="200"/>
+      <c r="C44" s="503" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E44" s="503" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G44" s="197" t="n">
         <f>((E44-C44)*24)-1</f>
         <v>0.0</v>
@@ -13751,8 +13870,12 @@
       <c r="B45" s="199" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="200"/>
-      <c r="E45" s="200"/>
+      <c r="C45" s="503" t="n">
+        <v>0.3680555555555556</v>
+      </c>
+      <c r="E45" s="503" t="n">
+        <v>0.7430555555555556</v>
+      </c>
       <c r="G45" s="197" t="n">
         <f>((E45-C45)*24)-1</f>
         <v>0.0</v>
@@ -13762,8 +13885,12 @@
       <c r="B46" s="199" t="n">
         <v>31.0</v>
       </c>
-      <c r="C46" s="200"/>
-      <c r="E46" s="200"/>
+      <c r="C46" s="503" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E46" s="503" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G46" s="197" t="n">
         <f>((E46-C46)*24)-1</f>
         <v>0.0</v>
@@ -14061,10 +14188,10 @@
       <c r="B16" s="232" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="501" t="n">
+      <c r="C16" s="506" t="n">
         <v>0.375</v>
       </c>
-      <c r="E16" s="501" t="n">
+      <c r="E16" s="506" t="n">
         <v>0.75</v>
       </c>
       <c r="G16" s="230" t="n">
@@ -14096,10 +14223,10 @@
       <c r="B19" s="232" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="501" t="n">
+      <c r="C19" s="506" t="n">
         <v>0.375</v>
       </c>
-      <c r="E19" s="501" t="n">
+      <c r="E19" s="506" t="n">
         <v>0.75</v>
       </c>
       <c r="G19" s="230" t="n">
@@ -14111,10 +14238,10 @@
       <c r="B20" s="232" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="501" t="n">
+      <c r="C20" s="506" t="n">
         <v>0.375</v>
       </c>
-      <c r="E20" s="501" t="n">
+      <c r="E20" s="506" t="n">
         <v>0.75</v>
       </c>
       <c r="G20" s="230" t="n">
@@ -14126,10 +14253,10 @@
       <c r="B21" s="232" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="501" t="n">
+      <c r="C21" s="506" t="n">
         <v>0.375</v>
       </c>
-      <c r="E21" s="501" t="n">
+      <c r="E21" s="506" t="n">
         <v>0.75</v>
       </c>
       <c r="G21" s="230" t="n">
@@ -14141,10 +14268,10 @@
       <c r="B22" s="232" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="501" t="n">
+      <c r="C22" s="506" t="n">
         <v>0.375</v>
       </c>
-      <c r="E22" s="501" t="n">
+      <c r="E22" s="506" t="n">
         <v>0.75</v>
       </c>
       <c r="G22" s="230" t="n">
@@ -14156,10 +14283,10 @@
       <c r="B23" s="232" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="501" t="n">
+      <c r="C23" s="506" t="n">
         <v>0.375</v>
       </c>
-      <c r="E23" s="501" t="n">
+      <c r="E23" s="506" t="n">
         <v>0.75</v>
       </c>
       <c r="G23" s="230" t="n">
@@ -14311,8 +14438,12 @@
       <c r="B36" s="232" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="233"/>
-      <c r="E36" s="233"/>
+      <c r="C36" s="506" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E36" s="506" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G36" s="230" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -14322,8 +14453,12 @@
       <c r="B37" s="232" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="233"/>
-      <c r="E37" s="233"/>
+      <c r="C37" s="506" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E37" s="506" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G37" s="230" t="n">
         <f>((E37-C37)*24)-1</f>
         <v>0.0</v>
@@ -14353,8 +14488,12 @@
       <c r="B40" s="232" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="233"/>
-      <c r="E40" s="233"/>
+      <c r="C40" s="506" t="n">
+        <v>0.3854166666666667</v>
+      </c>
+      <c r="E40" s="506" t="n">
+        <v>0.7604166666666666</v>
+      </c>
       <c r="G40" s="230" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
@@ -14364,8 +14503,12 @@
       <c r="B41" s="232" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="233"/>
-      <c r="E41" s="233"/>
+      <c r="C41" s="506" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E41" s="506" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G41" s="230" t="n">
         <f>((E41-C41)*24)-1</f>
         <v>0.0</v>
@@ -14375,8 +14518,12 @@
       <c r="B42" s="232" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="233"/>
-      <c r="E42" s="233"/>
+      <c r="C42" s="506" t="n">
+        <v>0.3680555555555556</v>
+      </c>
+      <c r="E42" s="506" t="n">
+        <v>0.7430555555555556</v>
+      </c>
       <c r="G42" s="230" t="n">
         <f>((E42-C42)*24)-1</f>
         <v>0.0</v>
@@ -14386,8 +14533,12 @@
       <c r="B43" s="232" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="233"/>
-      <c r="E43" s="233"/>
+      <c r="C43" s="506" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E43" s="506" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G43" s="230" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
@@ -14397,8 +14548,12 @@
       <c r="B44" s="232" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="233"/>
-      <c r="E44" s="233"/>
+      <c r="C44" s="506" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E44" s="506" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G44" s="230" t="n">
         <f>((E44-C44)*24)-1</f>
         <v>0.0</v>
@@ -14721,8 +14876,12 @@
       <c r="B17" s="265" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="266"/>
-      <c r="E17" s="266"/>
+      <c r="C17" s="510" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E17" s="510" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G17" s="263" t="n">
         <f>((E17-C17)*24)-1</f>
         <v>0.0</v>
@@ -14732,8 +14891,12 @@
       <c r="B18" s="265" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="266"/>
-      <c r="E18" s="266"/>
+      <c r="C18" s="510" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E18" s="510" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G18" s="263" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
@@ -14743,8 +14906,12 @@
       <c r="B19" s="265" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="266"/>
-      <c r="E19" s="266"/>
+      <c r="C19" s="510" t="n">
+        <v>0.3680555555555556</v>
+      </c>
+      <c r="E19" s="510" t="n">
+        <v>0.7430555555555556</v>
+      </c>
       <c r="G19" s="263" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
@@ -14754,8 +14921,12 @@
       <c r="B20" s="265" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="266"/>
-      <c r="E20" s="266"/>
+      <c r="C20" s="510" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E20" s="510" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G20" s="263" t="n">
         <f>((E20-C20)*24)-1</f>
         <v>0.0</v>
@@ -14765,8 +14936,12 @@
       <c r="B21" s="265" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="266"/>
-      <c r="E21" s="266"/>
+      <c r="C21" s="510" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E21" s="510" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G21" s="263" t="n">
         <f>((E21-C21)*24)-1</f>
         <v>0.0</v>
@@ -14796,8 +14971,12 @@
       <c r="B24" s="265" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="266"/>
-      <c r="E24" s="266"/>
+      <c r="C24" s="510" t="n">
+        <v>0.3854166666666667</v>
+      </c>
+      <c r="E24" s="510" t="n">
+        <v>0.7604166666666666</v>
+      </c>
       <c r="G24" s="263" t="n">
         <f>((E24-C24)*24)-1</f>
         <v>0.0</v>
@@ -14807,8 +14986,12 @@
       <c r="B25" s="265" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="266"/>
-      <c r="E25" s="266"/>
+      <c r="C25" s="510" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E25" s="510" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G25" s="263" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
@@ -14818,8 +15001,12 @@
       <c r="B26" s="265" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="266"/>
-      <c r="E26" s="266"/>
+      <c r="C26" s="510" t="n">
+        <v>0.3680555555555556</v>
+      </c>
+      <c r="E26" s="510" t="n">
+        <v>0.7430555555555556</v>
+      </c>
       <c r="G26" s="263" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
@@ -14829,8 +15016,12 @@
       <c r="B27" s="265" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="266"/>
-      <c r="E27" s="266"/>
+      <c r="C27" s="510" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E27" s="510" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G27" s="263" t="n">
         <f>((E27-C27)*24)-1</f>
         <v>0.0</v>
@@ -14840,8 +15031,12 @@
       <c r="B28" s="265" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="266"/>
-      <c r="E28" s="266"/>
+      <c r="C28" s="510" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E28" s="510" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G28" s="263" t="n">
         <f>((E28-C28)*24)-1</f>
         <v>0.0</v>
@@ -14871,8 +15066,12 @@
       <c r="B31" s="265" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="266"/>
-      <c r="E31" s="266"/>
+      <c r="C31" s="510" t="n">
+        <v>0.3819444444444444</v>
+      </c>
+      <c r="E31" s="510" t="n">
+        <v>0.7569444444444444</v>
+      </c>
       <c r="G31" s="263" t="n">
         <f>((E31-C31)*24)-1</f>
         <v>0.0</v>
@@ -14882,8 +15081,12 @@
       <c r="B32" s="265" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="266"/>
-      <c r="E32" s="266"/>
+      <c r="C32" s="510" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E32" s="510" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G32" s="263" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
@@ -14893,8 +15096,12 @@
       <c r="B33" s="265" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="266"/>
-      <c r="E33" s="266"/>
+      <c r="C33" s="510" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E33" s="510" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G33" s="263" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
@@ -14904,8 +15111,12 @@
       <c r="B34" s="265" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="266"/>
-      <c r="E34" s="266"/>
+      <c r="C34" s="510" t="n">
+        <v>0.3680555555555556</v>
+      </c>
+      <c r="E34" s="510" t="n">
+        <v>0.7430555555555556</v>
+      </c>
       <c r="G34" s="263" t="n">
         <f>((E34-C34)*24)-1</f>
         <v>0.0</v>
@@ -14915,8 +15126,12 @@
       <c r="B35" s="265" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="266"/>
-      <c r="E35" s="266"/>
+      <c r="C35" s="510" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E35" s="510" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G35" s="263" t="n">
         <f>((E35-C35)*24)-1</f>
         <v>0.0</v>
@@ -14946,8 +15161,12 @@
       <c r="B38" s="265" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="266"/>
-      <c r="E38" s="266"/>
+      <c r="C38" s="510" t="n">
+        <v>0.3854166666666667</v>
+      </c>
+      <c r="E38" s="510" t="n">
+        <v>0.7604166666666666</v>
+      </c>
       <c r="G38" s="263" t="n">
         <f>((E38-C38)*24)-1</f>
         <v>0.0</v>
@@ -14957,8 +15176,12 @@
       <c r="B39" s="265" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="266"/>
-      <c r="E39" s="266"/>
+      <c r="C39" s="510" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E39" s="510" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G39" s="263" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
@@ -14968,8 +15191,12 @@
       <c r="B40" s="265" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="266"/>
-      <c r="E40" s="266"/>
+      <c r="C40" s="510" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E40" s="510" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G40" s="263" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
@@ -14979,8 +15206,12 @@
       <c r="B41" s="265" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="266"/>
-      <c r="E41" s="266"/>
+      <c r="C41" s="510" t="n">
+        <v>0.3680555555555556</v>
+      </c>
+      <c r="E41" s="510" t="n">
+        <v>0.7430555555555556</v>
+      </c>
       <c r="G41" s="263" t="n">
         <f>((E41-C41)*24)-1</f>
         <v>0.0</v>
@@ -14990,8 +15221,12 @@
       <c r="B42" s="265" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="266"/>
-      <c r="E42" s="266"/>
+      <c r="C42" s="510" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E42" s="510" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G42" s="263" t="n">
         <f>((E42-C42)*24)-1</f>
         <v>0.0</v>
@@ -15021,8 +15256,12 @@
       <c r="B45" s="265" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="266"/>
-      <c r="E45" s="266"/>
+      <c r="C45" s="510" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E45" s="510" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G45" s="263" t="n">
         <f>((E45-C45)*24)-1</f>
         <v>0.0</v>
@@ -15032,8 +15271,12 @@
       <c r="B46" s="265" t="n">
         <v>31.0</v>
       </c>
-      <c r="C46" s="266"/>
-      <c r="E46" s="266"/>
+      <c r="C46" s="510" t="n">
+        <v>0.3854166666666667</v>
+      </c>
+      <c r="E46" s="510" t="n">
+        <v>0.7604166666666666</v>
+      </c>
       <c r="G46" s="263" t="n">
         <f>((E46-C46)*24)-1</f>
         <v>0.0</v>
@@ -15320,8 +15563,12 @@
       <c r="B16" s="297" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="298"/>
-      <c r="E16" s="298"/>
+      <c r="C16" s="511" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E16" s="511" t="n">
+        <v>0.7638888888888888</v>
+      </c>
       <c r="G16" s="295" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
@@ -15331,8 +15578,12 @@
       <c r="B17" s="297" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="298"/>
-      <c r="E17" s="298"/>
+      <c r="C17" s="511" t="n">
+        <v>0.3854166666666667</v>
+      </c>
+      <c r="E17" s="511" t="n">
+        <v>0.7604166666666666</v>
+      </c>
       <c r="G17" s="295" t="n">
         <f>((E17-C17)*24)-1</f>
         <v>0.0</v>
@@ -15342,8 +15593,12 @@
       <c r="B18" s="297" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="298"/>
-      <c r="E18" s="298"/>
+      <c r="C18" s="511" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E18" s="511" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G18" s="295" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
@@ -15373,8 +15628,12 @@
       <c r="B21" s="297" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="298"/>
-      <c r="E21" s="298"/>
+      <c r="C21" s="511" t="n">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="E21" s="511" t="n">
+        <v>0.7673611111111112</v>
+      </c>
       <c r="G21" s="295" t="n">
         <f>((E21-C21)*24)-1</f>
         <v>0.0</v>
@@ -15384,8 +15643,12 @@
       <c r="B22" s="297" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="298"/>
-      <c r="E22" s="298"/>
+      <c r="C22" s="511" t="n">
+        <v>0.3680555555555556</v>
+      </c>
+      <c r="E22" s="511" t="n">
+        <v>0.7430555555555556</v>
+      </c>
       <c r="G22" s="295" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
@@ -15395,8 +15658,12 @@
       <c r="B23" s="297" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="298"/>
-      <c r="E23" s="298"/>
+      <c r="C23" s="511" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E23" s="511" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G23" s="295" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
@@ -15406,8 +15673,12 @@
       <c r="B24" s="297" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="298"/>
-      <c r="E24" s="298"/>
+      <c r="C24" s="511" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E24" s="511" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G24" s="295" t="n">
         <f>((E24-C24)*24)-1</f>
         <v>0.0</v>
@@ -15417,8 +15688,12 @@
       <c r="B25" s="297" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="298"/>
-      <c r="E25" s="298"/>
+      <c r="C25" s="511" t="n">
+        <v>0.3680555555555556</v>
+      </c>
+      <c r="E25" s="511" t="n">
+        <v>0.7430555555555556</v>
+      </c>
       <c r="G25" s="295" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
@@ -15448,8 +15723,12 @@
       <c r="B28" s="297" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="298"/>
-      <c r="E28" s="298"/>
+      <c r="C28" s="511" t="n">
+        <v>0.3854166666666667</v>
+      </c>
+      <c r="E28" s="511" t="n">
+        <v>0.7604166666666666</v>
+      </c>
       <c r="G28" s="295" t="n">
         <f>((E28-C28)*24)-1</f>
         <v>0.0</v>
@@ -15459,8 +15738,12 @@
       <c r="B29" s="297" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="298"/>
-      <c r="E29" s="298"/>
+      <c r="C29" s="511" t="n">
+        <v>0.3784722222222222</v>
+      </c>
+      <c r="E29" s="511" t="n">
+        <v>0.7534722222222222</v>
+      </c>
       <c r="G29" s="295" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
@@ -15470,8 +15753,12 @@
       <c r="B30" s="297" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="298"/>
-      <c r="E30" s="298"/>
+      <c r="C30" s="511" t="n">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="E30" s="511" t="n">
+        <v>0.7326388888888888</v>
+      </c>
       <c r="G30" s="295" t="n">
         <f>((E30-C30)*24)-1</f>
         <v>0.0</v>
@@ -15481,8 +15768,12 @@
       <c r="B31" s="297" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="298"/>
-      <c r="E31" s="298"/>
+      <c r="C31" s="511" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E31" s="511" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G31" s="295" t="n">
         <f>((E31-C31)*24)-1</f>
         <v>0.0</v>
@@ -15492,8 +15783,12 @@
       <c r="B32" s="297" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="298"/>
-      <c r="E32" s="298"/>
+      <c r="C32" s="511" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E32" s="511" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G32" s="295" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
@@ -15523,8 +15818,12 @@
       <c r="B35" s="297" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="298"/>
-      <c r="E35" s="298"/>
+      <c r="C35" s="511" t="n">
+        <v>0.3854166666666667</v>
+      </c>
+      <c r="E35" s="511" t="n">
+        <v>0.7604166666666666</v>
+      </c>
       <c r="G35" s="295" t="n">
         <f>((E35-C35)*24)-1</f>
         <v>0.0</v>
@@ -15534,8 +15833,12 @@
       <c r="B36" s="297" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="298"/>
-      <c r="E36" s="298"/>
+      <c r="C36" s="511" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E36" s="511" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G36" s="295" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -15545,8 +15848,12 @@
       <c r="B37" s="297" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="298"/>
-      <c r="E37" s="298"/>
+      <c r="C37" s="511" t="n">
+        <v>0.3680555555555556</v>
+      </c>
+      <c r="E37" s="511" t="n">
+        <v>0.7430555555555556</v>
+      </c>
       <c r="G37" s="295" t="n">
         <f>((E37-C37)*24)-1</f>
         <v>0.0</v>
@@ -15556,8 +15863,12 @@
       <c r="B38" s="297" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="298"/>
-      <c r="E38" s="298"/>
+      <c r="C38" s="511" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E38" s="511" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G38" s="295" t="n">
         <f>((E38-C38)*24)-1</f>
         <v>0.0</v>
@@ -15567,8 +15878,12 @@
       <c r="B39" s="297" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="298"/>
-      <c r="E39" s="298"/>
+      <c r="C39" s="511" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E39" s="511" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G39" s="295" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
@@ -15598,8 +15913,12 @@
       <c r="B42" s="297" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="298"/>
-      <c r="E42" s="298"/>
+      <c r="C42" s="511" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E42" s="511" t="n">
+        <v>0.7638888888888888</v>
+      </c>
       <c r="G42" s="295" t="n">
         <f>((E42-C42)*24)-1</f>
         <v>0.0</v>
@@ -15609,8 +15928,12 @@
       <c r="B43" s="297" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="298"/>
-      <c r="E43" s="298"/>
+      <c r="C43" s="511" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E43" s="511" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G43" s="295" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
@@ -15620,8 +15943,12 @@
       <c r="B44" s="297" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="298"/>
-      <c r="E44" s="298"/>
+      <c r="C44" s="511" t="n">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="E44" s="511" t="n">
+        <v>0.7361111111111112</v>
+      </c>
       <c r="G44" s="295" t="n">
         <f>((E44-C44)*24)-1</f>
         <v>0.0</v>
@@ -15631,8 +15958,12 @@
       <c r="B45" s="297" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="298"/>
-      <c r="E45" s="298"/>
+      <c r="C45" s="511" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E45" s="511" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G45" s="295" t="n">
         <f>((E45-C45)*24)-1</f>
         <v>0.0</v>
@@ -16097,55 +16428,70 @@
       <c r="B33" s="327" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="328"/>
-      <c r="E33" s="328"/>
-      <c r="G33" s="325" t="n">
-        <f>((E33-C33)*24)-1</f>
-        <v>0.0</v>
+      <c r="C33" s="328" t="s">
+        <v>471</v>
+      </c>
+      <c r="E33" s="328" t="s">
+        <v>471</v>
+      </c>
+      <c r="G33" s="325" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="34" ht="14.4" customHeight="true">
       <c r="B34" s="327" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="328"/>
-      <c r="E34" s="328"/>
-      <c r="G34" s="325" t="n">
-        <f>((E34-C34)*24)-1</f>
-        <v>0.0</v>
+      <c r="C34" s="328" t="s">
+        <v>471</v>
+      </c>
+      <c r="E34" s="328" t="s">
+        <v>471</v>
+      </c>
+      <c r="G34" s="325" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="35" ht="14.4" customHeight="true">
       <c r="B35" s="327" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="328"/>
-      <c r="E35" s="328"/>
-      <c r="G35" s="325" t="n">
-        <f>((E35-C35)*24)-1</f>
-        <v>0.0</v>
+      <c r="C35" s="328" t="s">
+        <v>471</v>
+      </c>
+      <c r="E35" s="328" t="s">
+        <v>471</v>
+      </c>
+      <c r="G35" s="325" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="36" ht="14.4" customHeight="true">
       <c r="B36" s="327" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="328"/>
-      <c r="E36" s="328"/>
-      <c r="G36" s="325" t="n">
-        <f>((E36-C36)*24)-1</f>
-        <v>0.0</v>
+      <c r="C36" s="328" t="s">
+        <v>471</v>
+      </c>
+      <c r="E36" s="328" t="s">
+        <v>471</v>
+      </c>
+      <c r="G36" s="325" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="37" ht="14.4" customHeight="true">
       <c r="B37" s="327" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="328"/>
-      <c r="E37" s="328"/>
-      <c r="G37" s="325" t="n">
-        <f>((E37-C37)*24)-1</f>
-        <v>0.0</v>
+      <c r="C37" s="328" t="s">
+        <v>471</v>
+      </c>
+      <c r="E37" s="328" t="s">
+        <v>471</v>
+      </c>
+      <c r="G37" s="325" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="38" ht="14.4" customHeight="true">
@@ -16182,11 +16528,14 @@
       <c r="B41" s="327" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="328"/>
-      <c r="E41" s="328"/>
-      <c r="G41" s="325" t="n">
-        <f>((E41-C41)*24)-1</f>
-        <v>0.0</v>
+      <c r="C41" s="328" t="s">
+        <v>471</v>
+      </c>
+      <c r="E41" s="328" t="s">
+        <v>471</v>
+      </c>
+      <c r="G41" s="325" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="42" ht="14.4" customHeight="true">

--- a/config_files/Horarios/Palobiofarma, S.L Pamplona/Juan A. Camacho.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Pamplona/Juan A. Camacho.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="118">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -378,17 +378,20 @@
   <si>
     <t>Diciembre</t>
   </si>
+  <si>
+    <t>0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="d/m/yyyy"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="d"/>
     <numFmt numFmtId="180" formatCode="mmmm\ yyyy"/>
     <numFmt numFmtId="181" formatCode="ddd"/>
@@ -1986,7 +1989,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2284,6 +2287,33 @@
     </xf>
     <xf numFmtId="181" fontId="18" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2996,15 +3026,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4272727272727" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.70909090909091" customWidth="1"/>
-    <col min="2" max="8" width="6.70909090909091" customWidth="1"/>
-    <col min="9" max="9" width="2.70909090909091" customWidth="1"/>
-    <col min="10" max="16" width="6.70909090909091" customWidth="1"/>
-    <col min="17" max="17" width="2.70909090909091" customWidth="1"/>
-    <col min="18" max="24" width="6.70909090909091" customWidth="1"/>
-    <col min="25" max="25" width="10" customWidth="1"/>
-    <col min="26" max="26" width="5.70909090909091" customWidth="1"/>
-    <col min="27" max="29" width="25" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="2.70909090909091" collapsed="true"/>
+    <col min="2" max="8" customWidth="true" width="6.70909090909091" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="2.70909090909091" collapsed="true"/>
+    <col min="10" max="16" customWidth="true" width="6.70909090909091" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="2.70909090909091" collapsed="true"/>
+    <col min="18" max="24" customWidth="true" width="6.70909090909091" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="5.70909090909091" collapsed="true"/>
+    <col min="27" max="29" customWidth="true" width="25.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" customHeight="1" spans="2:24">
@@ -5960,19 +5990,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4272727272727" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.8636363636364" customWidth="1"/>
-    <col min="2" max="2" width="18.7090909090909" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.13636363636364" customWidth="1"/>
-    <col min="5" max="5" width="18.7090909090909" customWidth="1"/>
-    <col min="6" max="6" width="3.13636363636364" customWidth="1"/>
-    <col min="7" max="7" width="14.7090909090909" customWidth="1"/>
-    <col min="8" max="8" width="4.70909090909091" customWidth="1"/>
-    <col min="9" max="9" width="10.8636363636364" customWidth="1"/>
-    <col min="10" max="10" width="5.29090909090909" customWidth="1"/>
-    <col min="11" max="11" width="13.2909090909091" customWidth="1"/>
-    <col min="12" max="16" width="10.8636363636364" customWidth="1"/>
-    <col min="17" max="26" width="8.70909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8636363636364" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.7090909090909" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.13636363636364" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.7090909090909" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.13636363636364" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.7090909090909" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.70909090909091" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8636363636364" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29090909090909" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.2909090909091" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.8636363636364" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.70909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1" spans="10:11">
@@ -7453,19 +7483,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4272727272727" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.8636363636364" customWidth="1"/>
-    <col min="2" max="2" width="18.7090909090909" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.13636363636364" customWidth="1"/>
-    <col min="5" max="5" width="18.7090909090909" customWidth="1"/>
-    <col min="6" max="6" width="3.13636363636364" customWidth="1"/>
-    <col min="7" max="7" width="14.7090909090909" customWidth="1"/>
-    <col min="8" max="8" width="4.70909090909091" customWidth="1"/>
-    <col min="9" max="9" width="10.8636363636364" customWidth="1"/>
-    <col min="10" max="10" width="5.29090909090909" customWidth="1"/>
-    <col min="11" max="11" width="13.2909090909091" customWidth="1"/>
-    <col min="12" max="16" width="10.8636363636364" customWidth="1"/>
-    <col min="17" max="26" width="8.70909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8636363636364" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.7090909090909" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.13636363636364" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.7090909090909" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.13636363636364" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.7090909090909" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.70909090909091" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8636363636364" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29090909090909" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.2909090909091" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.8636363636364" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.70909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1" spans="10:11">
@@ -8953,19 +8983,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4272727272727" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.8636363636364" customWidth="1"/>
-    <col min="2" max="2" width="18.7090909090909" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.13636363636364" customWidth="1"/>
-    <col min="5" max="5" width="18.7090909090909" customWidth="1"/>
-    <col min="6" max="6" width="3.13636363636364" customWidth="1"/>
-    <col min="7" max="7" width="14.7090909090909" customWidth="1"/>
-    <col min="8" max="8" width="4.70909090909091" customWidth="1"/>
-    <col min="9" max="9" width="10.8636363636364" customWidth="1"/>
-    <col min="10" max="10" width="5.29090909090909" customWidth="1"/>
-    <col min="11" max="11" width="13.2909090909091" customWidth="1"/>
-    <col min="12" max="16" width="10.8636363636364" customWidth="1"/>
-    <col min="17" max="26" width="8.70909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8636363636364" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.7090909090909" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.13636363636364" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.7090909090909" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.13636363636364" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.7090909090909" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.70909090909091" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8636363636364" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29090909090909" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.2909090909091" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.8636363636364" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.70909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1" spans="10:11">
@@ -10444,19 +10474,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4272727272727" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.8636363636364" customWidth="1"/>
-    <col min="2" max="2" width="18.7090909090909" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.13636363636364" customWidth="1"/>
-    <col min="5" max="5" width="18.7090909090909" customWidth="1"/>
-    <col min="6" max="6" width="3.13636363636364" customWidth="1"/>
-    <col min="7" max="7" width="14.7090909090909" customWidth="1"/>
-    <col min="8" max="8" width="4.70909090909091" customWidth="1"/>
-    <col min="9" max="9" width="10.8636363636364" customWidth="1"/>
-    <col min="10" max="10" width="5.29090909090909" customWidth="1"/>
-    <col min="11" max="11" width="13.2909090909091" customWidth="1"/>
-    <col min="12" max="16" width="10.8636363636364" customWidth="1"/>
-    <col min="17" max="26" width="8.70909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8636363636364" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.7090909090909" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.13636363636364" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.7090909090909" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.13636363636364" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.7090909090909" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.70909090909091" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8636363636364" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29090909090909" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.2909090909091" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.8636363636364" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.70909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1" spans="10:11">
@@ -11943,19 +11973,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4272727272727" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.8636363636364" customWidth="1"/>
-    <col min="2" max="2" width="18.7090909090909" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.13636363636364" customWidth="1"/>
-    <col min="5" max="5" width="18.7090909090909" customWidth="1"/>
-    <col min="6" max="6" width="3.13636363636364" customWidth="1"/>
-    <col min="7" max="7" width="14.7090909090909" customWidth="1"/>
-    <col min="8" max="8" width="4.70909090909091" customWidth="1"/>
-    <col min="9" max="9" width="10.8636363636364" customWidth="1"/>
-    <col min="10" max="10" width="5.29090909090909" customWidth="1"/>
-    <col min="11" max="11" width="13.2909090909091" customWidth="1"/>
-    <col min="12" max="16" width="10.8636363636364" customWidth="1"/>
-    <col min="17" max="26" width="8.70909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8636363636364" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.7090909090909" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.13636363636364" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.7090909090909" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.13636363636364" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.7090909090909" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.70909090909091" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8636363636364" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29090909090909" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.2909090909091" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.8636363636364" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.70909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1" spans="10:14">
@@ -13545,19 +13575,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4272727272727" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.8636363636364" customWidth="1"/>
-    <col min="2" max="2" width="18.7090909090909" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.13636363636364" customWidth="1"/>
-    <col min="5" max="5" width="18.7090909090909" customWidth="1"/>
-    <col min="6" max="6" width="3.13636363636364" customWidth="1"/>
-    <col min="7" max="7" width="14.7090909090909" customWidth="1"/>
-    <col min="8" max="8" width="4.70909090909091" customWidth="1"/>
-    <col min="9" max="9" width="10.8636363636364" customWidth="1"/>
-    <col min="10" max="10" width="5.29090909090909" customWidth="1"/>
-    <col min="11" max="11" width="13.2909090909091" customWidth="1"/>
-    <col min="12" max="16" width="10.8636363636364" customWidth="1"/>
-    <col min="17" max="26" width="8.70909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8636363636364" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.7090909090909" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.13636363636364" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.7090909090909" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.13636363636364" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.7090909090909" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.70909090909091" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8636363636364" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29090909090909" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.2909090909091" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.8636363636364" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.70909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1" spans="10:14">
@@ -15133,19 +15163,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4272727272727" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.8636363636364" customWidth="1"/>
-    <col min="2" max="2" width="18.7090909090909" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.13636363636364" customWidth="1"/>
-    <col min="5" max="5" width="18.7090909090909" customWidth="1"/>
-    <col min="6" max="6" width="3.13636363636364" customWidth="1"/>
-    <col min="7" max="7" width="14.7090909090909" customWidth="1"/>
-    <col min="8" max="8" width="4.70909090909091" customWidth="1"/>
-    <col min="9" max="9" width="10.8636363636364" customWidth="1"/>
-    <col min="10" max="10" width="5.29090909090909" customWidth="1"/>
-    <col min="11" max="11" width="13.2909090909091" customWidth="1"/>
-    <col min="12" max="16" width="10.8636363636364" customWidth="1"/>
-    <col min="17" max="26" width="8.70909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8636363636364" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.7090909090909" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.13636363636364" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.7090909090909" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.13636363636364" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.7090909090909" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.70909090909091" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8636363636364" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29090909090909" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.2909090909091" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.8636363636364" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.70909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1" spans="10:14">
@@ -16745,19 +16775,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4272727272727" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.8636363636364" customWidth="1"/>
-    <col min="2" max="2" width="18.7090909090909" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.13636363636364" customWidth="1"/>
-    <col min="5" max="5" width="18.7090909090909" customWidth="1"/>
-    <col min="6" max="6" width="3.13636363636364" customWidth="1"/>
-    <col min="7" max="7" width="14.7090909090909" customWidth="1"/>
-    <col min="8" max="8" width="4.70909090909091" customWidth="1"/>
-    <col min="9" max="9" width="10.8636363636364" customWidth="1"/>
-    <col min="10" max="10" width="5.29090909090909" customWidth="1"/>
-    <col min="11" max="11" width="13.2909090909091" customWidth="1"/>
-    <col min="12" max="16" width="10.8636363636364" customWidth="1"/>
-    <col min="17" max="26" width="8.70909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8636363636364" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.7090909090909" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.13636363636364" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.7090909090909" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.13636363636364" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.7090909090909" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.70909090909091" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8636363636364" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29090909090909" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.2909090909091" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.8636363636364" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.70909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1" spans="10:14">
@@ -18322,19 +18352,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4272727272727" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.8636363636364" customWidth="1"/>
-    <col min="2" max="2" width="18.7090909090909" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.13636363636364" customWidth="1"/>
-    <col min="5" max="5" width="18.7090909090909" customWidth="1"/>
-    <col min="6" max="6" width="3.13636363636364" customWidth="1"/>
-    <col min="7" max="7" width="14.7090909090909" customWidth="1"/>
-    <col min="8" max="8" width="4.70909090909091" customWidth="1"/>
-    <col min="9" max="9" width="10.8636363636364" customWidth="1"/>
-    <col min="10" max="10" width="5.29090909090909" customWidth="1"/>
-    <col min="11" max="11" width="13.2909090909091" customWidth="1"/>
-    <col min="12" max="16" width="10.8636363636364" customWidth="1"/>
-    <col min="17" max="26" width="8.70909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8636363636364" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.7090909090909" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.13636363636364" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.7090909090909" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.13636363636364" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.7090909090909" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.70909090909091" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8636363636364" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29090909090909" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.2909090909091" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.8636363636364" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.70909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1" spans="10:14">
@@ -19929,19 +19959,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4272727272727" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.8636363636364" customWidth="1"/>
-    <col min="2" max="2" width="18.7090909090909" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.13636363636364" customWidth="1"/>
-    <col min="5" max="5" width="18.7090909090909" customWidth="1"/>
-    <col min="6" max="6" width="3.13636363636364" customWidth="1"/>
-    <col min="7" max="7" width="14.7090909090909" customWidth="1"/>
-    <col min="8" max="8" width="4.70909090909091" customWidth="1"/>
-    <col min="9" max="9" width="10.8636363636364" customWidth="1"/>
-    <col min="10" max="10" width="5.29090909090909" customWidth="1"/>
-    <col min="11" max="11" width="13.2909090909091" customWidth="1"/>
-    <col min="12" max="16" width="10.8636363636364" customWidth="1"/>
-    <col min="17" max="26" width="8.70909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8636363636364" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.7090909090909" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.13636363636364" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.7090909090909" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.13636363636364" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.7090909090909" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.70909090909091" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8636363636364" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29090909090909" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.2909090909091" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.8636363636364" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.70909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1" spans="10:11">
@@ -21516,19 +21546,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4272727272727" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.8636363636364" customWidth="1"/>
-    <col min="2" max="2" width="18.7090909090909" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.13636363636364" customWidth="1"/>
-    <col min="5" max="5" width="18.7090909090909" customWidth="1"/>
-    <col min="6" max="6" width="3.13636363636364" customWidth="1"/>
-    <col min="7" max="7" width="14.7090909090909" customWidth="1"/>
-    <col min="8" max="8" width="4.70909090909091" customWidth="1"/>
-    <col min="9" max="9" width="10.8636363636364" customWidth="1"/>
-    <col min="10" max="10" width="5.29090909090909" customWidth="1"/>
-    <col min="11" max="11" width="13.2909090909091" customWidth="1"/>
-    <col min="12" max="16" width="10.8636363636364" customWidth="1"/>
-    <col min="17" max="26" width="8.70909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8636363636364" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.7090909090909" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.13636363636364" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.7090909090909" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.13636363636364" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.7090909090909" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.70909090909091" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8636363636364" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29090909090909" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.2909090909091" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.8636363636364" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.70909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1" spans="10:11">
@@ -21962,8 +21992,12 @@
       <c r="B42" s="14">
         <v>27</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="E42" s="15"/>
+      <c r="C42" s="131" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E42" s="131" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G42" s="13">
         <f t="shared" ref="G42:G44" si="2">IF((E42-C42)*24&lt;=4,(E42-C42)*24,(E42-C42)*24-1)</f>
         <v>0</v>
@@ -21973,8 +22007,12 @@
       <c r="B43" s="14">
         <v>28</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="E43" s="15"/>
+      <c r="C43" s="131" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E43" s="131" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G43" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21984,11 +22022,14 @@
       <c r="B44" s="14">
         <v>29</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="G44" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C44" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="45" ht="14.25" customHeight="1" spans="2:7">
@@ -23034,19 +23075,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4272727272727" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.8636363636364" customWidth="1"/>
-    <col min="2" max="2" width="18.7090909090909" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.13636363636364" customWidth="1"/>
-    <col min="5" max="5" width="18.7090909090909" customWidth="1"/>
-    <col min="6" max="6" width="3.13636363636364" customWidth="1"/>
-    <col min="7" max="7" width="14.7090909090909" customWidth="1"/>
-    <col min="8" max="8" width="4.70909090909091" customWidth="1"/>
-    <col min="9" max="9" width="10.8636363636364" customWidth="1"/>
-    <col min="10" max="10" width="5.29090909090909" customWidth="1"/>
-    <col min="11" max="11" width="13.2909090909091" customWidth="1"/>
-    <col min="12" max="16" width="10.8636363636364" customWidth="1"/>
-    <col min="17" max="26" width="8.70909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8636363636364" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.7090909090909" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.13636363636364" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.7090909090909" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.13636363636364" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.7090909090909" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.70909090909091" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8636363636364" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29090909090909" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.2909090909091" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.8636363636364" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.70909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1" spans="10:11">
@@ -23185,8 +23226,12 @@
       <c r="B16" s="14">
         <v>1</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="E16" s="15"/>
+      <c r="C16" s="138" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E16" s="138" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G16" s="13">
         <f t="shared" ref="G16:G20" si="0">IF((E16-C16)*24&lt;=4,(E16-C16)*24,(E16-C16)*24-1)</f>
         <v>0</v>
@@ -23196,8 +23241,12 @@
       <c r="B17" s="14">
         <v>2</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="E17" s="15"/>
+      <c r="C17" s="138" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E17" s="138" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G17" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23207,11 +23256,14 @@
       <c r="B18" s="14">
         <v>3</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="G18" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C18" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1" spans="2:7">
@@ -23367,22 +23419,28 @@
       <c r="B33" s="14">
         <v>18</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="G33" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C33" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1" spans="2:7">
       <c r="B34" s="14">
         <v>19</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="G34" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C34" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1" spans="2:7">
